--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/13.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/13.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2196864509047944</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.600815108681551</v>
+        <v>-1.599779404099735</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1508690599072705</v>
+        <v>0.1519913355407579</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2450423956543702</v>
+        <v>-0.2453036828285061</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2438292797461267</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.533472274595822</v>
+        <v>-1.532095794874244</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09962844143244791</v>
+        <v>0.1005035960638911</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2484359808798945</v>
+        <v>-0.2486579175759979</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2737054321673633</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.489090444442067</v>
+        <v>-1.487222083745083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09543210645506027</v>
+        <v>0.09622383807307452</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2582421200055978</v>
+        <v>-0.2585553498107366</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2879998990227455</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.558606211924751</v>
+        <v>-1.556686695606325</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1222486702246601</v>
+        <v>0.1231568792576506</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354156947084952</v>
+        <v>-0.2354802294924685</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2842341936661955</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.592841127813041</v>
+        <v>-1.591161649410613</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1073694674710047</v>
+        <v>0.1080730540182261</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.261106834806365</v>
+        <v>-0.2612658107376164</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2714808817358699</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.479550314547863</v>
+        <v>-1.477958981216229</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1204574364646199</v>
+        <v>0.1211043583234745</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2529266574329653</v>
+        <v>-0.2530793372877315</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2603285719303811</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.264716379729336</v>
+        <v>-1.263381611514473</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1573036500751477</v>
+        <v>0.1576908587789877</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.258824507080479</v>
+        <v>-0.2591660692298013</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2543997336753516</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006782653331353</v>
+        <v>-1.00614989764459</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1790455761976741</v>
+        <v>0.1793509359072064</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2559708104135609</v>
+        <v>-0.2564729225132558</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2505992483342666</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5939284559480316</v>
+        <v>-0.5935664315501324</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1680683668457231</v>
+        <v>0.1682430829681875</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1644762269305945</v>
+        <v>-0.1647705685062777</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2428369814766189</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2203869601383162</v>
+        <v>-0.2205601022416593</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1379920094759096</v>
+        <v>0.1381210790438562</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1286059051752731</v>
+        <v>-0.1290041320129622</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.223293240117211</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2410210050797674</v>
+        <v>0.2406086120699866</v>
       </c>
       <c r="F12" t="n">
-        <v>0.102660002260073</v>
+        <v>0.1032061868951644</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03859404770457199</v>
+        <v>-0.03878922607561328</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1837166223827831</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7657580556242629</v>
+        <v>0.7650890974977101</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.006446281171126741</v>
+        <v>-0.005610477017716076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05519073359988689</v>
+        <v>0.05501129542005861</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1201192857592045</v>
       </c>
       <c r="E14" t="n">
-        <v>1.310768472451111</v>
+        <v>1.30987128155197</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2306416947135902</v>
+        <v>-0.2300183831415551</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1590712735483684</v>
+        <v>0.1589768324010903</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.03487544506981303</v>
       </c>
       <c r="E15" t="n">
-        <v>1.872304516032496</v>
+        <v>1.87131760604344</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4424369856184469</v>
+        <v>-0.4416924745740716</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2926629984305217</v>
+        <v>0.2926016116847909</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.06832519152992053</v>
       </c>
       <c r="E16" t="n">
-        <v>2.344472475963791</v>
+        <v>2.343096783251774</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6671596955665461</v>
+        <v>-0.6661397311759432</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4368352798460581</v>
+        <v>0.4369124067830019</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.182863364145449</v>
       </c>
       <c r="E17" t="n">
-        <v>2.799932222922479</v>
+        <v>2.798185061697835</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8806431219789976</v>
+        <v>-0.8792973356302856</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5557839048427511</v>
+        <v>0.5559161224489404</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2980633112904473</v>
       </c>
       <c r="E18" t="n">
-        <v>3.22337484693479</v>
+        <v>3.221300289732916</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.208625421332225</v>
+        <v>-1.207407917541899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6772588305291317</v>
+        <v>0.6773296613895903</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4110397087979589</v>
       </c>
       <c r="E19" t="n">
-        <v>3.597774183165614</v>
+        <v>3.595638239218009</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.507563919859213</v>
+        <v>-1.506359008221857</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8382133038159761</v>
+        <v>0.8383502434795294</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5252053533104042</v>
       </c>
       <c r="E20" t="n">
-        <v>3.723192026750853</v>
+        <v>3.720084913005405</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.84318257297943</v>
+        <v>-1.842216125238952</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014248454304002</v>
+        <v>1.014590016453325</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6436886110097778</v>
       </c>
       <c r="E21" t="n">
-        <v>3.973404402349296</v>
+        <v>3.970056463678289</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079570338635489</v>
+        <v>-2.078777820007914</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181917693162316</v>
+        <v>1.182438693491466</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7661038457436914</v>
       </c>
       <c r="E22" t="n">
-        <v>4.178159105724574</v>
+        <v>4.174996901309881</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.375190017845214</v>
+        <v>-2.374691053783761</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322095114047991</v>
+        <v>1.32267435308463</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8884922144672457</v>
       </c>
       <c r="E23" t="n">
-        <v>4.403229673898481</v>
+        <v>4.400289406179891</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507351746355665</v>
+        <v>-2.506626123540746</v>
       </c>
       <c r="G23" t="n">
-        <v>1.492950167607817</v>
+        <v>1.493852080564322</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.005630932094915</v>
       </c>
       <c r="E24" t="n">
-        <v>4.531099839274706</v>
+        <v>4.528080870600052</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.622334630176241</v>
+        <v>-2.621391792722582</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59675987669584</v>
+        <v>1.597768822952593</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.111122388620003</v>
       </c>
       <c r="E25" t="n">
-        <v>4.672111490294671</v>
+        <v>4.669322328411726</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.818253577214099</v>
+        <v>-2.81772313277022</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659948874320456</v>
+        <v>1.660964116653695</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.199701291123826</v>
       </c>
       <c r="E26" t="n">
-        <v>4.785251984733764</v>
+        <v>4.782867345764994</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.908147383250702</v>
+        <v>-2.907693278734207</v>
       </c>
       <c r="G26" t="n">
-        <v>1.70305968403376</v>
+        <v>1.704147331246579</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.266754382596089</v>
       </c>
       <c r="E27" t="n">
-        <v>4.895120093419673</v>
+        <v>4.893423300806911</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.98074114512509</v>
+        <v>-2.980477496922272</v>
       </c>
       <c r="G27" t="n">
-        <v>1.75334015084459</v>
+        <v>1.754610384275479</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.311179595304607</v>
       </c>
       <c r="E28" t="n">
-        <v>4.894281141228021</v>
+        <v>4.892954243108764</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069606329665923</v>
+        <v>-3.06977160167366</v>
       </c>
       <c r="G28" t="n">
-        <v>1.794137152449582</v>
+        <v>1.795745799991551</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.334089413207551</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902752512138861</v>
+        <v>4.90196550257821</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083101182602395</v>
+        <v>-3.083604081711651</v>
       </c>
       <c r="G29" t="n">
-        <v>1.725431217804807</v>
+        <v>1.726896629606738</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.337153198116582</v>
       </c>
       <c r="E30" t="n">
-        <v>4.844296590011996</v>
+        <v>4.843624483847201</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.072803162501285</v>
+        <v>-3.073433557159366</v>
       </c>
       <c r="G30" t="n">
-        <v>1.689326367200412</v>
+        <v>1.690750854505189</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.322862098519723</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718855136139937</v>
+        <v>4.718376634327062</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.061056257799018</v>
+        <v>-3.062154136136125</v>
       </c>
       <c r="G31" t="n">
-        <v>1.630560363306651</v>
+        <v>1.632006886879126</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.293080665046645</v>
       </c>
       <c r="E32" t="n">
-        <v>4.638052864547967</v>
+        <v>4.638090641006878</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.022044980887141</v>
+        <v>-3.023319936375395</v>
       </c>
       <c r="G32" t="n">
-        <v>1.593056209703419</v>
+        <v>1.594491715142045</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.24979033543203</v>
       </c>
       <c r="E33" t="n">
-        <v>4.559729673072044</v>
+        <v>4.560297893974834</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.952939245385556</v>
+        <v>-2.954255912380524</v>
       </c>
       <c r="G33" t="n">
-        <v>1.563666124670493</v>
+        <v>1.56534560307292</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.195352560673097</v>
       </c>
       <c r="E34" t="n">
-        <v>4.357057396994247</v>
+        <v>4.357694874738373</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.880676027526641</v>
+        <v>-2.882172132701438</v>
       </c>
       <c r="G34" t="n">
-        <v>1.513305382884477</v>
+        <v>1.515038377937029</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.132782082607964</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132307928721085</v>
+        <v>4.132939110388727</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.848850934913063</v>
+        <v>-2.850592587070782</v>
       </c>
       <c r="G35" t="n">
-        <v>1.392384511928795</v>
+        <v>1.393887700189637</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.06679844494864</v>
       </c>
       <c r="E36" t="n">
-        <v>3.98094867599769</v>
+        <v>3.981918271776411</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.823523393232213</v>
+        <v>-2.825425595340305</v>
       </c>
       <c r="G36" t="n">
-        <v>1.365851271601029</v>
+        <v>1.367555934309397</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.001668293140094</v>
       </c>
       <c r="E37" t="n">
-        <v>3.784937648841237</v>
+        <v>3.786063072512966</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.759794507048991</v>
+        <v>-2.761647127554762</v>
       </c>
       <c r="G37" t="n">
-        <v>1.27886782691971</v>
+        <v>1.280415087715949</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9389834668995719</v>
       </c>
       <c r="E38" t="n">
-        <v>3.714856021484445</v>
+        <v>3.716488279313233</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.728447129238727</v>
+        <v>-2.730505946249389</v>
       </c>
       <c r="G38" t="n">
-        <v>1.235635817734066</v>
+        <v>1.237375108863103</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8783887431665953</v>
       </c>
       <c r="E39" t="n">
-        <v>3.504567066878673</v>
+        <v>3.506394503078503</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.745656667301468</v>
+        <v>-2.748027140098147</v>
       </c>
       <c r="G39" t="n">
-        <v>1.160350483162254</v>
+        <v>1.162146438979658</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8185201845786509</v>
       </c>
       <c r="E40" t="n">
-        <v>3.258588802716529</v>
+        <v>3.260565770732883</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.710691406540895</v>
+        <v>-2.713351498855893</v>
       </c>
       <c r="G40" t="n">
-        <v>1.096217074064857</v>
+        <v>1.098017751939625</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7578267995427611</v>
       </c>
       <c r="E41" t="n">
-        <v>3.086535920605393</v>
+        <v>3.088607329769025</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.649837466282728</v>
+        <v>-2.652568389458185</v>
       </c>
       <c r="G41" t="n">
-        <v>1.064242449634755</v>
+        <v>1.066090348083162</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6954260075832581</v>
       </c>
       <c r="E42" t="n">
-        <v>2.972194449576747</v>
+        <v>2.974790007107772</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.61899298758172</v>
+        <v>-2.621713679632888</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9801662182704787</v>
+        <v>0.9819417118393059</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6312836487991708</v>
       </c>
       <c r="E43" t="n">
-        <v>2.838664111440325</v>
+        <v>2.841486327724817</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.602077791094662</v>
+        <v>-2.604974773287416</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9280709074127899</v>
+        <v>0.9298338088286466</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5654025311913243</v>
       </c>
       <c r="E44" t="n">
-        <v>2.709556767034758</v>
+        <v>2.712871651304217</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.530440245836465</v>
+        <v>-2.533189270231816</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8640539757303696</v>
+        <v>0.8657869707829215</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4971785279047816</v>
       </c>
       <c r="E45" t="n">
-        <v>2.51304520179773</v>
+        <v>2.516278237072882</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.465060213594998</v>
+        <v>-2.467769100502756</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8339555820928578</v>
+        <v>0.8358050545603861</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4269096327023403</v>
       </c>
       <c r="E46" t="n">
-        <v>2.386969418219788</v>
+        <v>2.390438556363135</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.425556268698154</v>
+        <v>-2.428307654122187</v>
       </c>
       <c r="G46" t="n">
-        <v>0.770684735473934</v>
+        <v>0.7724901354060659</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3548756764296512</v>
       </c>
       <c r="E47" t="n">
-        <v>2.223827058354336</v>
+        <v>2.22735443520517</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.290595147180469</v>
+        <v>-2.293057700095744</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7143852195432511</v>
+        <v>0.7161496949782291</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2815022245130928</v>
       </c>
       <c r="E48" t="n">
-        <v>2.135718190001287</v>
+        <v>2.139464355509983</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.249696621342153</v>
+        <v>-2.252230792127447</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6656646056816309</v>
+        <v>0.6674511173843072</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2070958283839099</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982377247204174</v>
+        <v>1.986235168070482</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.197788618759899</v>
+        <v>-2.200347186841573</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5913189605252355</v>
+        <v>0.5930566776351515</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1324074571365672</v>
       </c>
       <c r="E50" t="n">
-        <v>1.888929305991673</v>
+        <v>1.892976109152537</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.150357126558624</v>
+        <v>-2.152920416697662</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5346574201966533</v>
+        <v>0.5363353245799598</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.05872019163496173</v>
       </c>
       <c r="E51" t="n">
-        <v>1.764932801672969</v>
+        <v>1.769020529330987</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.100290726348291</v>
+        <v>-2.102919338280863</v>
       </c>
       <c r="G51" t="n">
-        <v>0.489752228685066</v>
+        <v>0.4913105076151537</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.01289490017561725</v>
       </c>
       <c r="E52" t="n">
-        <v>1.653086150951585</v>
+        <v>1.657320262387884</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.982492709329269</v>
+        <v>-1.984681382917438</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4541054176449693</v>
+        <v>0.4557219352825451</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.08168705953214232</v>
       </c>
       <c r="E53" t="n">
-        <v>1.609693591815567</v>
+        <v>1.61412602966115</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.922897984368143</v>
+        <v>-1.925137026568193</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3829707714960273</v>
+        <v>0.3844424793744435</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1465869053662019</v>
       </c>
       <c r="E54" t="n">
-        <v>1.566115298423237</v>
+        <v>1.570931796934417</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.912398489819507</v>
+        <v>-1.914775258692671</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3486980791488262</v>
+        <v>0.3501084002815116</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2068605363414545</v>
       </c>
       <c r="E55" t="n">
-        <v>1.510879819418553</v>
+        <v>1.516014269792236</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.847524504725538</v>
+        <v>-1.849663596711386</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3217792041363418</v>
+        <v>0.3232084134984828</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2626699977104144</v>
       </c>
       <c r="E56" t="n">
-        <v>1.453088133360877</v>
+        <v>1.458191103352134</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.785889850983207</v>
+        <v>-1.787783395986131</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2146105382434632</v>
+        <v>0.2156840192841902</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3143086684855819</v>
       </c>
       <c r="E57" t="n">
-        <v>1.462311885411699</v>
+        <v>1.468001964535201</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.783458778450358</v>
+        <v>-1.785447551610121</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2152558860831964</v>
+        <v>0.2165245454949648</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3629369124825196</v>
       </c>
       <c r="E58" t="n">
-        <v>1.447086398451357</v>
+        <v>1.453163686278699</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.768698414140361</v>
+        <v>-1.770564413808662</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2107006747461523</v>
+        <v>0.2120527571713495</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4095296487213243</v>
       </c>
       <c r="E59" t="n">
-        <v>1.435234034467963</v>
+        <v>1.441520666838438</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.732295286912479</v>
+        <v>-1.734006245697333</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1368492715938453</v>
+        <v>0.1380612663172468</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4545163052600691</v>
       </c>
       <c r="E60" t="n">
-        <v>1.467954743961562</v>
+        <v>1.474672657571273</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.764565039927825</v>
+        <v>-1.766412938376232</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1165884974644628</v>
+        <v>0.1178540088379886</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4979156221926601</v>
       </c>
       <c r="E61" t="n">
-        <v>1.465360760449658</v>
+        <v>1.472418662189571</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.78294092615945</v>
+        <v>-1.784787250588735</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1288406623046674</v>
+        <v>0.1302446873608676</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5396862946410774</v>
       </c>
       <c r="E62" t="n">
-        <v>1.475749286650243</v>
+        <v>1.483298282356001</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.826623891823347</v>
+        <v>-1.828650441442022</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04145899078565969</v>
+        <v>0.04267885560466773</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5797473756703315</v>
       </c>
       <c r="E63" t="n">
-        <v>1.46201124775953</v>
+        <v>1.469920693844066</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.787581134529044</v>
+        <v>-1.789484910656257</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007302775853434766</v>
+        <v>0.008425051486922156</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6177005473043577</v>
       </c>
       <c r="E64" t="n">
-        <v>1.463308239515482</v>
+        <v>1.471488416888882</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.815100497836305</v>
+        <v>-1.817015292097367</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02287904079750592</v>
+        <v>-0.02183389210096226</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6533126811338525</v>
       </c>
       <c r="E65" t="n">
-        <v>1.473079750220517</v>
+        <v>1.481815556343736</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.840564192171147</v>
+        <v>-1.842485282508694</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02611522411090014</v>
+        <v>-0.02494415388465242</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6861147919081975</v>
       </c>
       <c r="E66" t="n">
-        <v>1.43664592961977</v>
+        <v>1.445329793111986</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.845885163810704</v>
+        <v>-1.847725979173065</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03452363425688841</v>
+        <v>-0.03329117728490997</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7147639806230018</v>
       </c>
       <c r="E67" t="n">
-        <v>1.402030101104125</v>
+        <v>1.410948493445415</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.857746184899265</v>
+        <v>-1.859483902009181</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05355195141429243</v>
+        <v>-0.0523572709012252</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7375670137327121</v>
       </c>
       <c r="E68" t="n">
-        <v>1.351930646492246</v>
+        <v>1.360893111368932</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.887735184207846</v>
+        <v>-1.88936114596015</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06069799822499754</v>
+        <v>-0.05959146278272316</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7533418085719916</v>
       </c>
       <c r="E69" t="n">
-        <v>1.24838379859748</v>
+        <v>1.256982665057145</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.90918355576425</v>
+        <v>-1.910757574885551</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08304749572834601</v>
+        <v>-0.08189846176979651</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7608934534488343</v>
       </c>
       <c r="E70" t="n">
-        <v>1.264844890568042</v>
+        <v>1.273643657456113</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.914337681376949</v>
+        <v>-1.915858183848126</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05197635827387043</v>
+        <v>-0.05065575623109916</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7592468214562881</v>
       </c>
       <c r="E71" t="n">
-        <v>1.257724028063278</v>
+        <v>1.266469278301225</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.948918094462365</v>
+        <v>-1.950218234256559</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07159650662088352</v>
+        <v>-0.07032155113262996</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7479563888040432</v>
       </c>
       <c r="E72" t="n">
-        <v>1.241508483075638</v>
+        <v>1.25017503235752</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.978273551074623</v>
+        <v>-1.979599662184318</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.106561767381457</v>
+        <v>-0.105389123136088</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7270138518881026</v>
       </c>
       <c r="E73" t="n">
-        <v>1.246444607040037</v>
+        <v>1.255051343595309</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.97802879110126</v>
+        <v>-1.979325782857212</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09391609776092726</v>
+        <v>-0.09269151088455532</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6965570650333551</v>
       </c>
       <c r="E74" t="n">
-        <v>1.241327470876689</v>
+        <v>1.249737455041798</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.986090917040563</v>
+        <v>-1.987278514467584</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07491296490946406</v>
+        <v>-0.07353412415920466</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6572536859905855</v>
       </c>
       <c r="E75" t="n">
-        <v>1.185991254648242</v>
+        <v>1.194001437956541</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.018812413543722</v>
+        <v>-2.020011029104592</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04695208923867864</v>
+        <v>-0.04552287987653762</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6105928748799971</v>
       </c>
       <c r="E76" t="n">
-        <v>1.221826947982894</v>
+        <v>1.22949399512275</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.022256367381128</v>
+        <v>-2.023279479809973</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02705963558368055</v>
+        <v>-0.02559107574350701</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5583360464150195</v>
       </c>
       <c r="E77" t="n">
-        <v>1.157262257646262</v>
+        <v>1.164139147187224</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.019679698079559</v>
+        <v>-2.020759475196771</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02866828312564985</v>
+        <v>-0.02723907376350883</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5024184735712597</v>
       </c>
       <c r="E78" t="n">
-        <v>1.177386092112091</v>
+        <v>1.183808090126998</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.030308262196141</v>
+        <v>-2.031360493978731</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02337957887807954</v>
+        <v>-0.02204953272058046</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4453708226588164</v>
       </c>
       <c r="E79" t="n">
-        <v>1.163948690873547</v>
+        <v>1.169698582723658</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.007048981640681</v>
+        <v>-2.008246810191991</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04499400945178059</v>
+        <v>-0.04373164611649744</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3900584733185677</v>
       </c>
       <c r="E80" t="n">
-        <v>1.14352579277467</v>
+        <v>1.148387937840368</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.9691938217734</v>
+        <v>-1.970139807265301</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02859745226519132</v>
+        <v>-0.02742323400070101</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3384239799373209</v>
       </c>
       <c r="E81" t="n">
-        <v>1.16853853063126</v>
+        <v>1.172881249386928</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.922540682027608</v>
+        <v>-1.923360745989805</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008668796170403312</v>
+        <v>-0.00760948130176795</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2907409830424291</v>
       </c>
       <c r="E82" t="n">
-        <v>1.227625634425766</v>
+        <v>1.231573274381988</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.950597572864793</v>
+        <v>-1.951681285029808</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01908903103373432</v>
+        <v>0.02017353020831049</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.24720671194852</v>
       </c>
       <c r="E83" t="n">
-        <v>1.31470037221612</v>
+        <v>1.318284413755322</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.846140154908354</v>
+        <v>-1.846912211287352</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01165179068558857</v>
+        <v>0.01258203598627727</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2069766143743891</v>
       </c>
       <c r="E84" t="n">
-        <v>1.309433704236248</v>
+        <v>1.312208699947101</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.78536098055845</v>
+        <v>-1.786106278612386</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02218670066445407</v>
+        <v>0.02304926314292685</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1694837922300746</v>
       </c>
       <c r="E85" t="n">
-        <v>1.418442398481927</v>
+        <v>1.420967125152494</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757360754409632</v>
+        <v>-1.758300443825048</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01611413489447602</v>
+        <v>0.01677679694454361</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1350506718749679</v>
       </c>
       <c r="E86" t="n">
-        <v>1.663265332609036</v>
+        <v>1.665963201382946</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653100875852917</v>
+        <v>-1.653895755509174</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0320998730904058</v>
+        <v>0.03260670724746462</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1059644235968157</v>
       </c>
       <c r="E87" t="n">
-        <v>1.59800649983991</v>
+        <v>1.5997127365674</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.533296771463797</v>
+        <v>-1.534164843009194</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05296979261973162</v>
+        <v>0.05340736993545321</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08516914894005247</v>
       </c>
       <c r="E88" t="n">
-        <v>1.745213490121314</v>
+        <v>1.747050370435872</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.33366313929967</v>
+        <v>-1.334315570225449</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08965073422252284</v>
+        <v>0.09007729340439534</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.07443387428045226</v>
       </c>
       <c r="E89" t="n">
-        <v>1.912397931090267</v>
+        <v>1.914346566762437</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158861232793183</v>
+        <v>-1.159290940013298</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1133554621893112</v>
+        <v>0.1137883174476689</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07560071198109038</v>
       </c>
       <c r="E90" t="n">
-        <v>1.933477195162725</v>
+        <v>1.935011863805994</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.918782392297674</v>
+        <v>-0.9189075268178174</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1421600121091138</v>
+        <v>0.1426243477498975</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08943942337435636</v>
       </c>
       <c r="E91" t="n">
-        <v>1.971869095550371</v>
+        <v>1.973307749027239</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6670337740368419</v>
+        <v>-0.6667709128435848</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09538488588142126</v>
+        <v>0.09559580444367555</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1147812436942043</v>
       </c>
       <c r="E92" t="n">
-        <v>1.987344851550999</v>
+        <v>1.989062106412338</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4618556595179334</v>
+        <v>-0.4614684508140935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1066029201589313</v>
+        <v>0.1068752254669163</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1457671906670748</v>
       </c>
       <c r="E93" t="n">
-        <v>1.96078327887905</v>
+        <v>1.96245331316675</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2412678978014912</v>
+        <v>-0.2407531935488258</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09186537912619291</v>
+        <v>0.09200074477062478</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1745882187077413</v>
       </c>
       <c r="E94" t="n">
-        <v>1.848302298451781</v>
+        <v>1.849736229871286</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05825039849137498</v>
+        <v>-0.05766801141649373</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06659765017195297</v>
+        <v>0.06671884964429313</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.19491967606596</v>
       </c>
       <c r="E95" t="n">
-        <v>1.796948350600225</v>
+        <v>1.798415336421277</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07298029770882726</v>
+        <v>0.0735028720570991</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05408577217673381</v>
+        <v>0.05431715298756501</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2062528283396843</v>
       </c>
       <c r="E96" t="n">
-        <v>1.669008928382663</v>
+        <v>1.670301198081251</v>
       </c>
       <c r="F96" t="n">
-        <v>0.146280794168679</v>
+        <v>0.1466554107195485</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005349189843580162</v>
+        <v>-0.005257896734544722</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2140042981973781</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503485077586682</v>
+        <v>1.50446254346101</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1505967545992855</v>
+        <v>0.1506392531155606</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0205463444597383</v>
+        <v>-0.02048180967576498</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2265654612015774</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390001446979145</v>
+        <v>1.390813640845736</v>
       </c>
       <c r="F98" t="n">
-        <v>0.178647349359985</v>
+        <v>0.1787103101248371</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05864232925257885</v>
+        <v>-0.05862029298488064</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2482388701740042</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250507150392114</v>
+        <v>1.251048612969842</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1817308528186131</v>
+        <v>0.1816993724361871</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09824937240186805</v>
+        <v>-0.09830131503287098</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2809494302050539</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091507608853926</v>
+        <v>1.091812968563458</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2375203865539947</v>
+        <v>0.2378068580340714</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1453424504920633</v>
+        <v>-0.1455155925954064</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3183978583800175</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9100357963209266</v>
+        <v>0.9098563581410982</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2196363812977762</v>
+        <v>0.2198441518217879</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1710194244178415</v>
+        <v>-0.1712476571904301</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3622540603385782</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8500341874169444</v>
+        <v>0.8500278913404591</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2577811606833771</v>
+        <v>0.2580833723546668</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2090099499295549</v>
+        <v>-0.2092728111228121</v>
       </c>
     </row>
   </sheetData>
